--- a/public/templates/Mold_DB.xlsx
+++ b/public/templates/Mold_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Downloads\Nautilus-Web-Equipment-Qualification--1\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA60EC80-251D-4798-AFA2-8DCD713D3F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAACBB-44C9-4494-988B-458BE5C64C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Mold No</t>
-  </si>
-  <si>
-    <t>Material Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+  <si>
+    <t>NAUTILUS DATABASE IMPORT FILE</t>
+  </si>
+  <si>
+    <t>PLEASE NOTE: DO NOT CHANGE THE FORMAT OF THIS FILE. IF THE FORMAT CHANGES THERE WILL BE AN ERROR IN IMPORTING THE DATA.</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS:</t>
+  </si>
+  <si>
+    <t>1. COPY AND PASTE THE DATA FROM THE CURRENT FILE TO THE COLUMNS BELOW.</t>
+  </si>
+  <si>
+    <t>2. DOUBLE CHECK THE DATA AND SAVE THE FILE</t>
+  </si>
+  <si>
+    <t>3. PROCEED WITH THE IMPORT FUNCTION IN THE SOFTWARE</t>
+  </si>
+  <si>
+    <t>4. ONLY MANDATORY FIELDS MUST BE FILLED. DUPLICATE IDs ARE NOT ALLOWED.</t>
+  </si>
+  <si>
+    <t>Mold Number</t>
+  </si>
+  <si>
+    <t>Material ID</t>
   </si>
   <si>
     <t>Platen Orientation</t>
@@ -34,6 +55,9 @@
     <t>Number of Bases</t>
   </si>
   <si>
+    <t>Hot Runner Volume</t>
+  </si>
+  <si>
     <t>Cycle Time</t>
   </si>
   <si>
@@ -43,64 +67,56 @@
     <t>Mold Vertical Height</t>
   </si>
   <si>
+    <t>Req Mold Open Stroke</t>
+  </si>
+  <si>
     <t>Mold Width</t>
   </si>
   <si>
     <t>Number of Core Pulls</t>
   </si>
   <si>
-    <t>Hot Runner Volume</t>
-  </si>
-  <si>
-    <t>Req Mold Open Stroke</t>
-  </si>
-  <si>
-    <t>NAUTLUS DATABASE IMPORT FILE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PLEASE NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> DO NOT CHANGE THE FORMAT OF THIS FILE. IF THE FORMAT CHANGES THERE WILL BE AN ERROR IN IMPORTING THE DATA.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUCTIONS: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. COPY AND PASTE THE DATA FROM THE CURRENT FILE TO THE COLUMNS BELOW. </t>
-  </si>
-  <si>
-    <t>2. DOUBLE CHECK THE DATA AND SAVE THE FILE</t>
-  </si>
-  <si>
-    <t>3. PROCEED WITH THE IMPORT FUNCTION IN THE SOFTWARE</t>
-  </si>
-  <si>
-    <t>4. ONLY MACHINE NUMBER IS MANDATORY, DUPLICATE MACHINE NUMBER IS NOT ALLOWED.</t>
+    <t>Part Description</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>No Of Cavities</t>
+  </si>
+  <si>
+    <t>Starting Cavity Number</t>
+  </si>
+  <si>
+    <t>Weight of one Part</t>
+  </si>
+  <si>
+    <t>Number of Runners</t>
+  </si>
+  <si>
+    <t>Runner Weight</t>
+  </si>
+  <si>
+    <t>Part Projected Area</t>
+  </si>
+  <si>
+    <t>Runner Projected Area</t>
+  </si>
+  <si>
+    <t>Mold Details</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,40 +127,45 @@
     <font>
       <b/>
       <u/>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="10"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,11 +182,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,162 +532,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A2:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" customWidth="1"/>
-    <col min="7" max="7" width="25.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" customWidth="1"/>
-    <col min="9" max="9" width="25.796875" customWidth="1"/>
-    <col min="10" max="10" width="22.796875" customWidth="1"/>
-    <col min="11" max="11" width="25.796875" customWidth="1"/>
+    <col min="1" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="7" max="7" width="19.796875" customWidth="1"/>
+    <col min="8" max="9" width="22.796875" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" customWidth="1"/>
+    <col min="11" max="11" width="22.796875" customWidth="1"/>
+    <col min="12" max="12" width="18.796875" customWidth="1"/>
+    <col min="13" max="13" width="13.796875" customWidth="1"/>
+    <col min="14" max="14" width="16.796875" customWidth="1"/>
+    <col min="15" max="15" width="24.796875" customWidth="1"/>
+    <col min="16" max="16" width="20.796875" customWidth="1"/>
+    <col min="17" max="17" width="19.796875" customWidth="1"/>
+    <col min="18" max="18" width="15.796875" customWidth="1"/>
+    <col min="19" max="19" width="21.796875" customWidth="1"/>
+    <col min="20" max="20" width="23.796875" customWidth="1"/>
+    <col min="21" max="21" width="18.796875" customWidth="1"/>
+    <col min="22" max="22" width="13.796875" customWidth="1"/>
+    <col min="23" max="23" width="16.796875" customWidth="1"/>
+    <col min="24" max="24" width="24.796875" customWidth="1"/>
+    <col min="25" max="25" width="20.796875" customWidth="1"/>
+    <col min="26" max="26" width="19.796875" customWidth="1"/>
+    <col min="27" max="27" width="15.796875" customWidth="1"/>
+    <col min="28" max="28" width="21.796875" customWidth="1"/>
+    <col min="29" max="29" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="I13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
+  <mergeCells count="3">
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="L12:T12"/>
+    <mergeCell ref="U12:AC12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A13:K13" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AC11 A13:AC13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>